--- a/results/cv_results_OFFSIDES_all.xlsx
+++ b/results/cv_results_OFFSIDES_all.xlsx
@@ -660,22 +660,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>1.250391100705262</v>
+        <v>1.247280699706043</v>
       </c>
       <c r="D8" t="n">
-        <v>1.519824980302705</v>
+        <v>1.471227155691673</v>
       </c>
       <c r="E8" t="n">
-        <v>0.806518890764468</v>
+        <v>0.8008681717536661</v>
       </c>
       <c r="F8" t="n">
-        <v>0.4438722099407937</v>
+        <v>0.4464125279523769</v>
       </c>
       <c r="G8" t="n">
-        <v>0.9147547372916552</v>
+        <v>0.9017866125481925</v>
       </c>
       <c r="H8" t="n">
-        <v>0.6050702430110495</v>
+        <v>0.5694405431434802</v>
       </c>
     </row>
     <row r="9">
@@ -820,22 +820,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>1.001532354332358</v>
+        <v>1.335396997377683</v>
       </c>
       <c r="D14" t="n">
-        <v>1.184611767241229</v>
+        <v>1.621986087910618</v>
       </c>
       <c r="E14" t="n">
-        <v>0.6617124781622571</v>
+        <v>0.8250078140295801</v>
       </c>
       <c r="F14" t="n">
-        <v>0.3398198761701012</v>
+        <v>0.5103891833481026</v>
       </c>
       <c r="G14" t="n">
-        <v>0.7714234270938839</v>
+        <v>0.9390710958101205</v>
       </c>
       <c r="H14" t="n">
-        <v>0.4131883401473448</v>
+        <v>0.6829149921004977</v>
       </c>
     </row>
     <row r="15">
@@ -980,22 +980,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>1.196146420697007</v>
+        <v>1.249246935446964</v>
       </c>
       <c r="D20" t="n">
-        <v>1.245890420737948</v>
+        <v>1.308812499765613</v>
       </c>
       <c r="E20" t="n">
-        <v>0.7538040213774245</v>
+        <v>0.7981189211820928</v>
       </c>
       <c r="F20" t="n">
-        <v>0.4423423993195824</v>
+        <v>0.451128014264871</v>
       </c>
       <c r="G20" t="n">
-        <v>0.7694387707117392</v>
+        <v>0.8149013682693641</v>
       </c>
       <c r="H20" t="n">
-        <v>0.4764516500262092</v>
+        <v>0.4939111314962493</v>
       </c>
     </row>
     <row r="21">
@@ -1140,22 +1140,22 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>1.231834411254201</v>
+        <v>1.450206563779895</v>
       </c>
       <c r="D26" t="n">
-        <v>1.321786979435489</v>
+        <v>1.455661799617892</v>
       </c>
       <c r="E26" t="n">
-        <v>0.7188070231988939</v>
+        <v>0.84686201242368</v>
       </c>
       <c r="F26" t="n">
-        <v>0.5130273880553073</v>
+        <v>0.6033445513562155</v>
       </c>
       <c r="G26" t="n">
-        <v>0.7781590986037662</v>
+        <v>0.8556570604959768</v>
       </c>
       <c r="H26" t="n">
-        <v>0.5436278808317229</v>
+        <v>0.6000047391219157</v>
       </c>
     </row>
     <row r="27">
@@ -1300,22 +1300,22 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>1.081186194331013</v>
+        <v>1.132183422380093</v>
       </c>
       <c r="D32" t="n">
-        <v>1.12162868420412</v>
+        <v>1.14378273820644</v>
       </c>
       <c r="E32" t="n">
-        <v>0.7088427073742383</v>
+        <v>0.7256708759849397</v>
       </c>
       <c r="F32" t="n">
-        <v>0.3723434869567745</v>
+        <v>0.4065125463951536</v>
       </c>
       <c r="G32" t="n">
-        <v>0.6969336329811189</v>
+        <v>0.7191264078049503</v>
       </c>
       <c r="H32" t="n">
-        <v>0.4246950512230014</v>
+        <v>0.42465633040149</v>
       </c>
     </row>
     <row r="33">
@@ -1460,22 +1460,22 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>1.273772491139727</v>
+        <v>1.294992035412081</v>
       </c>
       <c r="D38" t="n">
-        <v>1.549406552606202</v>
+        <v>1.458996947495545</v>
       </c>
       <c r="E38" t="n">
-        <v>0.7923443892472899</v>
+        <v>0.7855148075740218</v>
       </c>
       <c r="F38" t="n">
-        <v>0.4814281018924369</v>
+        <v>0.509477227838059</v>
       </c>
       <c r="G38" t="n">
-        <v>0.8809858405226788</v>
+        <v>0.8508876929214301</v>
       </c>
       <c r="H38" t="n">
-        <v>0.6684207120835226</v>
+        <v>0.6081092545741145</v>
       </c>
     </row>
     <row r="39">
@@ -1620,22 +1620,22 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>1.251677225055416</v>
+        <v>1.255978645362999</v>
       </c>
       <c r="D44" t="n">
-        <v>1.487396823522957</v>
+        <v>1.456935179059997</v>
       </c>
       <c r="E44" t="n">
-        <v>0.7846367613257068</v>
+        <v>0.7853124800562535</v>
       </c>
       <c r="F44" t="n">
-        <v>0.4670404637297093</v>
+        <v>0.4706661653067456</v>
       </c>
       <c r="G44" t="n">
-        <v>0.8832995483832324</v>
+        <v>0.8672458563758881</v>
       </c>
       <c r="H44" t="n">
-        <v>0.6040972751397249</v>
+        <v>0.5896893226841085</v>
       </c>
     </row>
     <row r="45">
